--- a/Code/Results/Cases/Case_7_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_26/res_line/pl_mw.xlsx
@@ -427,16 +427,16 @@
         <v>0.7741550616715642</v>
       </c>
       <c r="D2">
-        <v>0.01474093857668279</v>
+        <v>0.01474093857656911</v>
       </c>
       <c r="E2">
-        <v>0.01566475486680474</v>
+        <v>0.01566475486680347</v>
       </c>
       <c r="F2">
-        <v>3.345928447186935</v>
+        <v>3.345928447186907</v>
       </c>
       <c r="G2">
-        <v>0.0008338732958657781</v>
+        <v>0.0008338732958022789</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05551379441160975</v>
+        <v>0.05551379441161508</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3216946306898194</v>
+        <v>0.3216946306896915</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.535298551548252</v>
+        <v>1.535298551548223</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.474645401192049</v>
+        <v>4.474645401191992</v>
       </c>
       <c r="C3">
-        <v>0.667197989985624</v>
+        <v>0.6671979899855955</v>
       </c>
       <c r="D3">
-        <v>0.01258900595382428</v>
+        <v>0.01258900595381007</v>
       </c>
       <c r="E3">
-        <v>0.01562466118823141</v>
+        <v>0.01562466118819444</v>
       </c>
       <c r="F3">
-        <v>3.120068408033447</v>
+        <v>3.120068408033433</v>
       </c>
       <c r="G3">
-        <v>0.0008445521020745901</v>
+        <v>0.0008445521019510078</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05636032897212928</v>
+        <v>0.05636032897203513</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2896035031860009</v>
+        <v>0.2896035031860293</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.580526379460323</v>
+        <v>1.580526379460309</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.115543190033009</v>
+        <v>4.115543190032895</v>
       </c>
       <c r="C4">
-        <v>0.6028837274062937</v>
+        <v>0.6028837274060379</v>
       </c>
       <c r="D4">
-        <v>0.01134171799636619</v>
+        <v>0.01134171799649053</v>
       </c>
       <c r="E4">
-        <v>0.01560701111721546</v>
+        <v>0.01560701111722085</v>
       </c>
       <c r="F4">
-        <v>2.988641302789972</v>
+        <v>2.988641302790001</v>
       </c>
       <c r="G4">
-        <v>0.0008512705921166703</v>
+        <v>0.0008512705921177198</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05693600219054318</v>
+        <v>0.05693600219050055</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.270456125824154</v>
+        <v>0.2704561258242393</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.610496600103076</v>
+        <v>1.610496600103005</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.971240711903249</v>
+        <v>3.971240711903192</v>
       </c>
       <c r="C5">
-        <v>0.5769677100419983</v>
+        <v>0.5769677100420267</v>
       </c>
       <c r="D5">
-        <v>0.01084940592263806</v>
+        <v>0.01084940592286188</v>
       </c>
       <c r="E5">
-        <v>0.01560144058870183</v>
+        <v>0.01560144058870017</v>
       </c>
       <c r="F5">
-        <v>2.936738298329729</v>
+        <v>2.936738298329757</v>
       </c>
       <c r="G5">
-        <v>0.0008540515856889864</v>
+        <v>0.0008540515858075698</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05718419097971683</v>
+        <v>0.057184190979779</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2627790534465362</v>
+        <v>0.2627790534465504</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.62323305468432</v>
+        <v>1.623233054684363</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.947394858490213</v>
+        <v>3.947394858490441</v>
       </c>
       <c r="C6">
-        <v>0.5726807060605097</v>
+        <v>0.5726807060604528</v>
       </c>
       <c r="D6">
-        <v>0.01076855032949808</v>
+        <v>0.01076855032950519</v>
       </c>
       <c r="E6">
-        <v>0.01560061008238933</v>
+        <v>0.0156006100823618</v>
       </c>
       <c r="F6">
         <v>2.928215140181635</v>
       </c>
       <c r="G6">
-        <v>0.0008545160430901748</v>
+        <v>0.0008545160432051362</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0572262111673556</v>
+        <v>0.05722621116742133</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2615114757748529</v>
+        <v>0.261511475774995</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.625378722782074</v>
+        <v>1.625378722782088</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.113589177113283</v>
+        <v>4.113589177113113</v>
       </c>
       <c r="C7">
-        <v>0.6025330914924325</v>
+        <v>0.6025330914922336</v>
       </c>
       <c r="D7">
-        <v>0.01133501713901097</v>
+        <v>0.01133501713912111</v>
       </c>
       <c r="E7">
-        <v>0.01560692958340182</v>
+        <v>0.01560692958342819</v>
       </c>
       <c r="F7">
-        <v>2.987934832953442</v>
+        <v>2.987934832953414</v>
       </c>
       <c r="G7">
-        <v>0.0008513079195799911</v>
+        <v>0.0008513079196386986</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05693929487166116</v>
+        <v>0.05693929487165761</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.27035209941387</v>
+        <v>0.270352099413941</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.610666286765607</v>
+        <v>1.610666286765536</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.865548814572321</v>
+        <v>4.865548814572264</v>
       </c>
       <c r="C8">
         <v>0.7369634673194412</v>
       </c>
       <c r="D8">
-        <v>0.01398190985259617</v>
+        <v>0.01398190985283421</v>
       </c>
       <c r="E8">
-        <v>0.01564940068645482</v>
+        <v>0.01564940068645787</v>
       </c>
       <c r="F8">
         <v>3.266439839276529</v>
       </c>
       <c r="G8">
-        <v>0.0008375233763543872</v>
+        <v>0.0008375233764169275</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05579378831739135</v>
+        <v>0.05579378831726522</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.550417528200228</v>
+        <v>1.550417528200214</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.426646572565119</v>
+        <v>6.426646572565062</v>
       </c>
       <c r="C9">
-        <v>1.013851902999704</v>
+        <v>1.013851902999477</v>
       </c>
       <c r="D9">
-        <v>0.01989594866241973</v>
+        <v>0.01989594866253341</v>
       </c>
       <c r="E9">
-        <v>0.01579487569965005</v>
+        <v>0.01579487569969706</v>
       </c>
       <c r="F9">
-        <v>3.878721308459575</v>
+        <v>3.878721308459603</v>
       </c>
       <c r="G9">
-        <v>0.000811647989339906</v>
+        <v>0.0008116479894033499</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05401412883674972</v>
+        <v>0.05401412883673729</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3943927817030612</v>
+        <v>0.3943927817030897</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.451245998763298</v>
+        <v>1.451245998763312</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.648376784662844</v>
+        <v>7.648376784662901</v>
       </c>
       <c r="C10">
-        <v>1.229384854531702</v>
+        <v>1.229384854532043</v>
       </c>
       <c r="D10">
-        <v>0.02490383586364686</v>
+        <v>0.02490383586380318</v>
       </c>
       <c r="E10">
-        <v>0.01595127496203108</v>
+        <v>0.01595127496203097</v>
       </c>
       <c r="F10">
-        <v>4.382624748006009</v>
+        <v>4.382624748005981</v>
       </c>
       <c r="G10">
-        <v>0.0007931408474295409</v>
+        <v>0.0007931408475057576</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05302785675835864</v>
+        <v>0.05302785675858956</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4603327734899239</v>
+        <v>0.4603327734899949</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.392383641222168</v>
+        <v>1.392383641222125</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.22629631029497</v>
+        <v>8.226296310294856</v>
       </c>
       <c r="C11">
-        <v>1.331140849417636</v>
+        <v>1.331140849417693</v>
       </c>
       <c r="D11">
         <v>0.02738673845135509</v>
       </c>
       <c r="E11">
-        <v>0.01603648784954081</v>
+        <v>0.01603648784953954</v>
       </c>
       <c r="F11">
         <v>4.627271486618213</v>
       </c>
       <c r="G11">
-        <v>0.0007847775633812564</v>
+        <v>0.0007847775634381993</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05265868541536634</v>
+        <v>0.05265868541543739</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.491577297628254</v>
+        <v>0.4915772976283108</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.36929905742484</v>
+        <v>1.369299057424783</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.448908871211415</v>
+        <v>8.448908871211188</v>
       </c>
       <c r="C12">
-        <v>1.370314093724858</v>
+        <v>1.370314093724517</v>
       </c>
       <c r="D12">
-        <v>0.02836259645162187</v>
+        <v>0.02836259645169292</v>
       </c>
       <c r="E12">
-        <v>0.01607112719799114</v>
+        <v>0.01607112719799164</v>
       </c>
       <c r="F12">
         <v>4.722495674861449</v>
       </c>
       <c r="G12">
-        <v>0.0007816133591667054</v>
+        <v>0.0007816133590885224</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05253129132854895</v>
+        <v>0.05253129132834999</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5036191442259081</v>
+        <v>0.5036191442257518</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.361154348140332</v>
+        <v>1.361154348140275</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>8.400787445210767</v>
       </c>
       <c r="C13">
-        <v>1.361847051291249</v>
+        <v>1.361847051291306</v>
       </c>
       <c r="D13">
-        <v>0.02815073231455045</v>
+        <v>0.02815073231472809</v>
       </c>
       <c r="E13">
-        <v>0.01606355520642672</v>
+        <v>0.01606355520639685</v>
       </c>
       <c r="F13">
         <v>4.701866167883111</v>
       </c>
       <c r="G13">
-        <v>0.000782294795155937</v>
+        <v>0.0007822947952175048</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05255815915325712</v>
+        <v>0.05255815915311146</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5010158242368732</v>
+        <v>0.5010158242369016</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.362880738773271</v>
+        <v>1.362880738773299</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.244531611734828</v>
+        <v>8.244531611735169</v>
       </c>
       <c r="C14">
-        <v>1.33435014265001</v>
+        <v>1.334350142650521</v>
       </c>
       <c r="D14">
-        <v>0.02746626919717698</v>
+        <v>0.02746626919744699</v>
       </c>
       <c r="E14">
-        <v>0.01603928787445691</v>
+        <v>0.01603928787443482</v>
       </c>
       <c r="F14">
-        <v>4.635051594057899</v>
+        <v>4.635051594057927</v>
       </c>
       <c r="G14">
-        <v>0.0007845172193328092</v>
+        <v>0.0007845172193398958</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05264794993287936</v>
+        <v>0.05264794993268751</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4925635805838766</v>
+        <v>0.4925635805837629</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.368616606681201</v>
+        <v>1.368616606681329</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.149329854858593</v>
+        <v>8.14932985485882</v>
       </c>
       <c r="C15">
-        <v>1.317594381119022</v>
+        <v>1.317594381118681</v>
       </c>
       <c r="D15">
-        <v>0.02705185947261413</v>
+        <v>0.02705185947253597</v>
       </c>
       <c r="E15">
-        <v>0.01602474378861501</v>
+        <v>0.01602474378861324</v>
       </c>
       <c r="F15">
-        <v>4.594473793790371</v>
+        <v>4.594473793790399</v>
       </c>
       <c r="G15">
-        <v>0.0007858787125703396</v>
+        <v>0.0007858787125689738</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05270459609238642</v>
+        <v>0.0527045960924859</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4874147112498122</v>
+        <v>0.4874147112498406</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.372209874002678</v>
+        <v>1.372209874002664</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.611101741504115</v>
+        <v>7.611101741504228</v>
       </c>
       <c r="C16">
-        <v>1.222818257893607</v>
+        <v>1.222818257893323</v>
       </c>
       <c r="D16">
-        <v>0.02474619751516371</v>
+        <v>0.02474619751538398</v>
       </c>
       <c r="E16">
-        <v>0.01594601733691803</v>
+        <v>0.01594601733698869</v>
       </c>
       <c r="F16">
-        <v>4.366976626883172</v>
+        <v>4.366976626883144</v>
       </c>
       <c r="G16">
-        <v>0.0007936881009067096</v>
+        <v>0.0007936881007710265</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05305366227102226</v>
+        <v>0.05305366227110753</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4583185046941054</v>
+        <v>0.4583185046942191</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.393971967618285</v>
+        <v>1.393971967618256</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.286974919505326</v>
+        <v>7.286974919505155</v>
       </c>
       <c r="C17">
-        <v>1.16569702234483</v>
+        <v>1.165697022344489</v>
       </c>
       <c r="D17">
-        <v>0.02338826929452864</v>
+        <v>0.02338826929417337</v>
       </c>
       <c r="E17">
-        <v>0.01590155031130336</v>
+        <v>0.01590155031131152</v>
       </c>
       <c r="F17">
-        <v>4.231605236779018</v>
+        <v>4.231605236778961</v>
       </c>
       <c r="G17">
-        <v>0.0007984897089367501</v>
+        <v>0.0007984897090143769</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0532888084910681</v>
+        <v>0.05328880849092421</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.440808993161852</v>
+        <v>0.4408089931616956</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.408311634000754</v>
+        <v>1.408311634000711</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.102590651366768</v>
+        <v>7.10259065136654</v>
       </c>
       <c r="C18">
-        <v>1.133184159035864</v>
+        <v>1.133184159035295</v>
       </c>
       <c r="D18">
-        <v>0.02262607199464028</v>
+        <v>0.02262607199499911</v>
       </c>
       <c r="E18">
-        <v>0.01587727345399942</v>
+        <v>0.01587727345398632</v>
       </c>
       <c r="F18">
-        <v>4.155169518223403</v>
+        <v>4.155169518223374</v>
       </c>
       <c r="G18">
-        <v>0.0008012570664472994</v>
+        <v>0.0008012570663708149</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05343147396615677</v>
+        <v>0.05343147396620473</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4308533610717831</v>
+        <v>0.430853361071641</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.416902431354316</v>
+        <v>1.416902431354345</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.040496251485251</v>
+        <v>7.040496251485195</v>
       </c>
       <c r="C19">
-        <v>1.122231573127294</v>
+        <v>1.122231573127351</v>
       </c>
       <c r="D19">
-        <v>0.02237107091388069</v>
+        <v>0.02237107091387713</v>
       </c>
       <c r="E19">
-        <v>0.0158692674012858</v>
+        <v>0.01586926740128225</v>
       </c>
       <c r="F19">
-        <v>4.12952448278233</v>
+        <v>4.129524482782301</v>
       </c>
       <c r="G19">
-        <v>0.000802195154026248</v>
+        <v>0.000802195153950942</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05348102441579172</v>
+        <v>0.05348102441582725</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4275015108695754</v>
+        <v>0.427501510869547</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.419868198739664</v>
+        <v>1.419868198739678</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.321263207935488</v>
+        <v>7.32126320793526</v>
       </c>
       <c r="C20">
-        <v>1.171741583639744</v>
+        <v>1.171741583639971</v>
       </c>
       <c r="D20">
-        <v>0.02353083110162402</v>
+        <v>0.02353083110138243</v>
       </c>
       <c r="E20">
-        <v>0.01590614711808552</v>
+        <v>0.01590614711808241</v>
       </c>
       <c r="F20">
-        <v>4.245865675409931</v>
+        <v>4.245865675409988</v>
       </c>
       <c r="G20">
-        <v>0.0007979780253356126</v>
+        <v>0.0007979780252029147</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05326300271493878</v>
+        <v>0.05326300271500628</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.442660762114059</v>
+        <v>0.4426607621141869</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.406749208774144</v>
+        <v>1.40674920877413</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.290320392810486</v>
+        <v>8.290320392810827</v>
       </c>
       <c r="C21">
-        <v>1.342408326675468</v>
+        <v>1.342408326675979</v>
       </c>
       <c r="D21">
-        <v>0.02766629051252067</v>
+        <v>0.02766629051191671</v>
       </c>
       <c r="E21">
-        <v>0.01604634828916751</v>
+        <v>0.01604634828917162</v>
       </c>
       <c r="F21">
-        <v>4.654603382890514</v>
+        <v>4.654603382890485</v>
       </c>
       <c r="G21">
-        <v>0.0007838644095854619</v>
+        <v>0.0007838644095305991</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05262123107383943</v>
+        <v>0.05262123107379324</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4950402342983722</v>
+        <v>0.4950402342982017</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.366915062065104</v>
+        <v>1.366915062065132</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.945954489898099</v>
+        <v>8.945954489897986</v>
       </c>
       <c r="C22">
-        <v>1.457745371527267</v>
+        <v>1.45774537152721</v>
       </c>
       <c r="D22">
-        <v>0.03058050584660066</v>
+        <v>0.03058050584645144</v>
       </c>
       <c r="E22">
-        <v>0.01615201606030103</v>
+        <v>0.01615201606030264</v>
       </c>
       <c r="F22">
         <v>4.937000369888324</v>
       </c>
       <c r="G22">
-        <v>0.0007746535477916204</v>
+        <v>0.0007746535479301583</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05227465893129235</v>
+        <v>0.05227465893134564</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5305166396843788</v>
+        <v>0.5305166396844214</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.593771786722868</v>
+        <v>8.593771786722641</v>
       </c>
       <c r="C23">
         <v>1.395800180692845</v>
       </c>
       <c r="D23">
-        <v>0.02900343428368757</v>
+        <v>0.02900343428347441</v>
       </c>
       <c r="E23">
-        <v>0.01609419966313447</v>
+        <v>0.01609419966303005</v>
       </c>
       <c r="F23">
-        <v>4.784746516564212</v>
+        <v>4.784746516564155</v>
       </c>
       <c r="G23">
-        <v>0.0007795703019798914</v>
+        <v>0.0007795703019032034</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05245260108842231</v>
+        <v>0.05245260108832994</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5114569370097399</v>
+        <v>0.5114569370095694</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.356069748763176</v>
+        <v>1.356069748763133</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.305755408742357</v>
+        <v>7.3057554087423</v>
       </c>
       <c r="C24">
-        <v>1.169007827114683</v>
+        <v>1.169007827114285</v>
       </c>
       <c r="D24">
-        <v>0.02346632175668617</v>
+        <v>0.02346632175643037</v>
       </c>
       <c r="E24">
-        <v>0.01590406491564395</v>
+        <v>0.01590406491555518</v>
       </c>
       <c r="F24">
-        <v>4.239414224917653</v>
+        <v>4.239414224917596</v>
       </c>
       <c r="G24">
-        <v>0.0007982093357130523</v>
+        <v>0.0007982093357202175</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05327464628928702</v>
+        <v>0.05327464628947887</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4418232344483926</v>
+        <v>0.4418232344484778</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.407454506082388</v>
+        <v>1.407454506082431</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.992968517420195</v>
+        <v>5.992968517420138</v>
       </c>
       <c r="C25">
-        <v>0.9371445507978819</v>
+        <v>0.9371445507978535</v>
       </c>
       <c r="D25">
-        <v>0.01819771903188894</v>
+        <v>0.01819771903187828</v>
       </c>
       <c r="E25">
-        <v>0.01574778941804672</v>
+        <v>0.01574778941801253</v>
       </c>
       <c r="F25">
-        <v>3.704695788940427</v>
+        <v>3.704695788940398</v>
       </c>
       <c r="G25">
-        <v>0.0008185434248347519</v>
+        <v>0.0008185434248315637</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05444211172192226</v>
+        <v>0.05444211172189561</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3710364463010478</v>
+        <v>0.3710364463009057</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.475812637370083</v>
+        <v>1.475812637370126</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.074427279399856</v>
+        <v>2.998119592790545</v>
       </c>
       <c r="C2">
-        <v>0.7741550616715642</v>
+        <v>0.5003783741494772</v>
       </c>
       <c r="D2">
-        <v>0.01474093857656911</v>
+        <v>0.03413708595801168</v>
       </c>
       <c r="E2">
-        <v>0.01566475486680347</v>
+        <v>0.03987483945617765</v>
       </c>
       <c r="F2">
-        <v>3.345928447186907</v>
+        <v>1.218018560893213</v>
       </c>
       <c r="G2">
-        <v>0.0008338732958022789</v>
+        <v>1.003743514880227</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001288947134206131</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05551379441161508</v>
+        <v>0.6590130968374552</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5788650159754098</v>
       </c>
       <c r="L2">
-        <v>0.3216946306896915</v>
+        <v>0.05829386417623095</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.535298551548223</v>
+        <v>0.3455366193719982</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.8121519948304901</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.474645401191992</v>
+        <v>2.616104380423167</v>
       </c>
       <c r="C3">
-        <v>0.6671979899855955</v>
+        <v>0.4358300776821977</v>
       </c>
       <c r="D3">
-        <v>0.01258900595381007</v>
+        <v>0.03143118944790757</v>
       </c>
       <c r="E3">
-        <v>0.01562466118819444</v>
+        <v>0.03750712287340185</v>
       </c>
       <c r="F3">
-        <v>3.120068408033433</v>
+        <v>1.143185165607278</v>
       </c>
       <c r="G3">
-        <v>0.0008445521019510078</v>
+        <v>0.931700299517118</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.002975667624224743</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05636032897203513</v>
+        <v>0.6311130821530071</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5617770997961884</v>
       </c>
       <c r="L3">
-        <v>0.2896035031860293</v>
+        <v>0.05518048327748026</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.580526379460309</v>
+        <v>0.3065861318272738</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.8451838296157597</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.115543190032895</v>
+        <v>2.382219275664795</v>
       </c>
       <c r="C4">
-        <v>0.6028837274060379</v>
+        <v>0.3962858381190983</v>
       </c>
       <c r="D4">
-        <v>0.01134171799649053</v>
+        <v>0.02977482061792003</v>
       </c>
       <c r="E4">
-        <v>0.01560701111722085</v>
+        <v>0.03604953706163272</v>
       </c>
       <c r="F4">
-        <v>2.988641302790001</v>
+        <v>1.098666527609709</v>
       </c>
       <c r="G4">
-        <v>0.0008512705921177198</v>
+        <v>0.8888661515317864</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.004404896343391251</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05693600219050055</v>
+        <v>0.6147969884027162</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5521056325462723</v>
       </c>
       <c r="L4">
-        <v>0.2704561258242393</v>
+        <v>0.05325168127959401</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.610496600103005</v>
+        <v>0.2827053392764043</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.8662888884586799</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.971240711903192</v>
+        <v>2.287045280421523</v>
       </c>
       <c r="C5">
-        <v>0.5769677100420267</v>
+        <v>0.3801861202343844</v>
       </c>
       <c r="D5">
-        <v>0.01084940592286188</v>
+        <v>0.02910054055142552</v>
       </c>
       <c r="E5">
-        <v>0.01560144058870017</v>
+        <v>0.03545384579110866</v>
       </c>
       <c r="F5">
-        <v>2.936738298329757</v>
+        <v>1.0808616147946</v>
       </c>
       <c r="G5">
-        <v>0.0008540515858075698</v>
+        <v>0.8717388503335997</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.005080998114772195</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.057184190979779</v>
+        <v>0.6083417364864232</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5483598105515313</v>
       </c>
       <c r="L5">
-        <v>0.2627790534465504</v>
+        <v>0.05246033405548012</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.623233054684363</v>
+        <v>0.27297876228495</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.8750909044227022</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.947394858490441</v>
+        <v>2.271248993895369</v>
       </c>
       <c r="C6">
-        <v>0.5726807060604528</v>
+        <v>0.3775134649211225</v>
       </c>
       <c r="D6">
-        <v>0.01076855032950519</v>
+        <v>0.02898860344348364</v>
       </c>
       <c r="E6">
-        <v>0.0156006100823618</v>
+        <v>0.03535480684769077</v>
       </c>
       <c r="F6">
-        <v>2.928215140181635</v>
+        <v>1.077924824184308</v>
       </c>
       <c r="G6">
-        <v>0.0008545160432051362</v>
+        <v>0.8689139976525695</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.005198772207218372</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05722621116742133</v>
+        <v>0.607281229863716</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.54774930985905</v>
       </c>
       <c r="L6">
-        <v>0.261511475774995</v>
+        <v>0.05232857960988735</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.625378722782088</v>
+        <v>0.2713638701057022</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.876564489279172</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.113589177113113</v>
+        <v>2.380935217499939</v>
       </c>
       <c r="C7">
-        <v>0.6025330914922336</v>
+        <v>0.3960686609174218</v>
       </c>
       <c r="D7">
-        <v>0.01133501713912111</v>
+        <v>0.02976572491666118</v>
       </c>
       <c r="E7">
-        <v>0.01560692958342819</v>
+        <v>0.03604151127003163</v>
       </c>
       <c r="F7">
-        <v>2.987934832953414</v>
+        <v>1.098425069739264</v>
       </c>
       <c r="G7">
-        <v>0.0008513079196386986</v>
+        <v>0.8886338699989835</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.004413641997669027</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05693929487165761</v>
+        <v>0.6147091607042228</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.552054338088773</v>
       </c>
       <c r="L7">
-        <v>0.270352099413941</v>
+        <v>0.05324103185450912</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.610666286765536</v>
+        <v>0.2825741476669776</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.86640678657756</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.865548814572264</v>
+        <v>2.866240096588172</v>
       </c>
       <c r="C8">
-        <v>0.7369634673194412</v>
+        <v>0.4780990918587804</v>
       </c>
       <c r="D8">
-        <v>0.01398190985283421</v>
+        <v>0.03320268659414083</v>
       </c>
       <c r="E8">
-        <v>0.01564940068645787</v>
+        <v>0.03905876938504793</v>
       </c>
       <c r="F8">
-        <v>3.266439839276529</v>
+        <v>1.191905335739207</v>
       </c>
       <c r="G8">
-        <v>0.0008375233764169275</v>
+        <v>0.9785972978256439</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.00178558398436035</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05579378831726522</v>
+        <v>0.6492171920552892</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5727960166051531</v>
       </c>
       <c r="L8">
-        <v>0.310504980601209</v>
+        <v>0.05722330031246603</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.550417528200214</v>
+        <v>0.3320969030184386</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.8233670717893524</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.426646572565062</v>
+        <v>3.824920252156971</v>
       </c>
       <c r="C9">
-        <v>1.013851902999477</v>
+        <v>0.6400297509934205</v>
       </c>
       <c r="D9">
-        <v>0.01989594866253341</v>
+        <v>0.04001073933694244</v>
       </c>
       <c r="E9">
-        <v>0.01579487569969706</v>
+        <v>0.04498198689953181</v>
       </c>
       <c r="F9">
-        <v>3.878721308459603</v>
+        <v>1.387650131710842</v>
       </c>
       <c r="G9">
-        <v>0.0008116479894033499</v>
+        <v>1.167295103799589</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.397646156257707E-06</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05401412883673729</v>
+        <v>0.7238874278511958</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6205058763322455</v>
       </c>
       <c r="L9">
-        <v>0.3943927817030897</v>
+        <v>0.06494540842715324</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.451245998763312</v>
+        <v>0.4296720456116532</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.745760961434808</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.648376784662901</v>
+        <v>4.513233974735101</v>
       </c>
       <c r="C10">
-        <v>1.229384854532043</v>
+        <v>0.7602969889781264</v>
       </c>
       <c r="D10">
-        <v>0.02490383586380318</v>
+        <v>0.04446331799287861</v>
       </c>
       <c r="E10">
-        <v>0.01595127496203097</v>
+        <v>0.04838201607684312</v>
       </c>
       <c r="F10">
-        <v>4.382624748005981</v>
+        <v>1.521991730351971</v>
       </c>
       <c r="G10">
-        <v>0.0007931408475057576</v>
+        <v>1.298856044151535</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001220304034190711</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05302785675858956</v>
+        <v>0.7757449592527053</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.6520184099206361</v>
       </c>
       <c r="L10">
-        <v>0.4603327734899949</v>
+        <v>0.06950533272115234</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.392383641222125</v>
+        <v>0.4892499284085829</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.6959742212219737</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.226296310294856</v>
+        <v>4.627722224834372</v>
       </c>
       <c r="C11">
-        <v>1.331140849417693</v>
+        <v>0.8162261518777143</v>
       </c>
       <c r="D11">
-        <v>0.02738673845135509</v>
+        <v>0.04123172181576251</v>
       </c>
       <c r="E11">
-        <v>0.01603648784953954</v>
+        <v>0.04317969145504597</v>
       </c>
       <c r="F11">
-        <v>4.627271486618213</v>
+        <v>1.424943856206326</v>
       </c>
       <c r="G11">
-        <v>0.0007847775634381993</v>
+        <v>1.2208567286917</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02000146291474536</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05265868541543739</v>
+        <v>0.7310675813004934</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5943495293009633</v>
       </c>
       <c r="L11">
-        <v>0.4915772976283108</v>
+        <v>0.06662419927990149</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.369299057424783</v>
+        <v>0.4113769886286747</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.7038188449886604</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.448908871211188</v>
+        <v>4.575006241452911</v>
       </c>
       <c r="C12">
-        <v>1.370314093724517</v>
+        <v>0.838014930891319</v>
       </c>
       <c r="D12">
-        <v>0.02836259645169292</v>
+        <v>0.03783948267884796</v>
       </c>
       <c r="E12">
-        <v>0.01607112719799164</v>
+        <v>0.04077125478306187</v>
       </c>
       <c r="F12">
-        <v>4.722495674861449</v>
+        <v>1.315941772431486</v>
       </c>
       <c r="G12">
-        <v>0.0007816133590885224</v>
+        <v>1.128100835965355</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05857270258196223</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05253129132834999</v>
+        <v>0.6825997817873457</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5404598918014898</v>
       </c>
       <c r="L12">
-        <v>0.5036191442257518</v>
+        <v>0.06983906769098702</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.361154348140275</v>
+        <v>0.3396145131439283</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.7282410304439821</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.400787445210767</v>
+        <v>4.390914349458114</v>
       </c>
       <c r="C13">
-        <v>1.361847051291306</v>
+        <v>0.8345043788409328</v>
       </c>
       <c r="D13">
-        <v>0.02815073231472809</v>
+        <v>0.03413879627522221</v>
       </c>
       <c r="E13">
-        <v>0.01606355520639685</v>
+        <v>0.040322349778521</v>
       </c>
       <c r="F13">
-        <v>4.701866167883111</v>
+        <v>1.191587876069605</v>
       </c>
       <c r="G13">
-        <v>0.0007822947952175048</v>
+        <v>1.018658719148988</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1139680882582752</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05255815915311146</v>
+        <v>0.6283711274350452</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4863033133175492</v>
       </c>
       <c r="L13">
-        <v>0.5010158242369016</v>
+        <v>0.07774453073648502</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.362880738773299</v>
+        <v>0.268962839878256</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.7654769847387399</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.244531611735169</v>
+        <v>4.203593419404854</v>
       </c>
       <c r="C14">
-        <v>1.334350142650521</v>
+        <v>0.8206113423545389</v>
       </c>
       <c r="D14">
-        <v>0.02746626919744699</v>
+        <v>0.03147253414487849</v>
       </c>
       <c r="E14">
-        <v>0.01603928787443482</v>
+        <v>0.04123449535791579</v>
       </c>
       <c r="F14">
-        <v>4.635051594057927</v>
+        <v>1.098772342420787</v>
       </c>
       <c r="G14">
-        <v>0.0007845172193398958</v>
+        <v>0.9355270892888115</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1630071393767452</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05264794993268751</v>
+        <v>0.5882679169235985</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4488779509316458</v>
       </c>
       <c r="L14">
-        <v>0.4925635805837629</v>
+        <v>0.08615921762159218</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.368616606681329</v>
+        <v>0.2214307017811095</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.7977143850981037</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.14932985485882</v>
+        <v>4.130816488058656</v>
       </c>
       <c r="C15">
-        <v>1.317594381118681</v>
+        <v>0.8118251813471034</v>
       </c>
       <c r="D15">
-        <v>0.02705185947253597</v>
+        <v>0.03072823897219124</v>
       </c>
       <c r="E15">
-        <v>0.01602474378861324</v>
+        <v>0.04151422607146138</v>
       </c>
       <c r="F15">
-        <v>4.594473793790399</v>
+        <v>1.072912336064647</v>
       </c>
       <c r="G15">
-        <v>0.0007858787125689738</v>
+        <v>0.9117709320241545</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1753903908356307</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0527045960924859</v>
+        <v>0.5773193693692775</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4395823134016297</v>
       </c>
       <c r="L15">
-        <v>0.4874147112498406</v>
+        <v>0.08830739083135342</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.372209874002664</v>
+        <v>0.2093751468941818</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.8071382862239531</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.611101741504228</v>
+        <v>3.875872921980317</v>
       </c>
       <c r="C16">
-        <v>1.222818257893323</v>
+        <v>0.7603456761108873</v>
       </c>
       <c r="D16">
-        <v>0.02474619751538398</v>
+        <v>0.02965125811166303</v>
       </c>
       <c r="E16">
-        <v>0.01594601733698869</v>
+        <v>0.04010986885796175</v>
       </c>
       <c r="F16">
-        <v>4.366976626883144</v>
+        <v>1.041929475700414</v>
       </c>
       <c r="G16">
-        <v>0.0007936881007710265</v>
+        <v>0.8785281721593208</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1621477831039755</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05305366227110753</v>
+        <v>0.5663763650115641</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4373116722984918</v>
       </c>
       <c r="L16">
-        <v>0.4583185046942191</v>
+        <v>0.08440235194851198</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.393971967618256</v>
+        <v>0.2004768986205505</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.817130718552761</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.286974919505155</v>
+        <v>3.779703774245831</v>
       </c>
       <c r="C17">
-        <v>1.165697022344489</v>
+        <v>0.7283899240414655</v>
       </c>
       <c r="D17">
-        <v>0.02338826929417337</v>
+        <v>0.03020058826178129</v>
       </c>
       <c r="E17">
-        <v>0.01590155031131152</v>
+        <v>0.0383217756978409</v>
       </c>
       <c r="F17">
-        <v>4.231605236778961</v>
+        <v>1.067126186202131</v>
       </c>
       <c r="G17">
-        <v>0.0007984897090143769</v>
+        <v>0.8969625831749681</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1241883817619112</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05328880849092421</v>
+        <v>0.5792340916025864</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4553022698272073</v>
       </c>
       <c r="L17">
-        <v>0.4408089931616956</v>
+        <v>0.07643716137199874</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.408311634000711</v>
+        <v>0.2178668609222854</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.8078870002300249</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.10259065136654</v>
+        <v>3.807648960586107</v>
       </c>
       <c r="C18">
-        <v>1.133184159035295</v>
+        <v>0.7094526821841214</v>
       </c>
       <c r="D18">
-        <v>0.02262607199499911</v>
+        <v>0.03236097848991548</v>
       </c>
       <c r="E18">
-        <v>0.01587727345398632</v>
+        <v>0.03730067539393467</v>
       </c>
       <c r="F18">
-        <v>4.155169518223374</v>
+        <v>1.144562599048072</v>
       </c>
       <c r="G18">
-        <v>0.0008012570663708149</v>
+        <v>0.962687510617684</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07133674157773839</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05343147396620473</v>
+        <v>0.6142820274524468</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4936403438853105</v>
       </c>
       <c r="L18">
-        <v>0.430853361071641</v>
+        <v>0.06720500467008428</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.416902431354345</v>
+        <v>0.2634152851061629</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.7841885928237318</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.040496251485195</v>
+        <v>3.933144421630516</v>
       </c>
       <c r="C19">
-        <v>1.122231573127351</v>
+        <v>0.702343520191306</v>
       </c>
       <c r="D19">
-        <v>0.02237107091387713</v>
+        <v>0.03591431609695661</v>
       </c>
       <c r="E19">
-        <v>0.01586926740128225</v>
+        <v>0.03890615806066267</v>
       </c>
       <c r="F19">
-        <v>4.129524482782301</v>
+        <v>1.261284643065864</v>
       </c>
       <c r="G19">
-        <v>0.000802195153950942</v>
+        <v>1.06406482935796</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0261842333422706</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05348102441582725</v>
+        <v>0.6656438331623917</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5474537999126525</v>
       </c>
       <c r="L19">
-        <v>0.427501510869547</v>
+        <v>0.06221883945556606</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.419868198739678</v>
+        <v>0.3340915523032777</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.7550268879695707</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.32126320793526</v>
+        <v>4.331055560751963</v>
       </c>
       <c r="C20">
-        <v>1.171741583639971</v>
+        <v>0.7286165711711021</v>
       </c>
       <c r="D20">
-        <v>0.02353083110138243</v>
+        <v>0.04326060474168969</v>
       </c>
       <c r="E20">
-        <v>0.01590614711808241</v>
+        <v>0.04743857078492209</v>
       </c>
       <c r="F20">
-        <v>4.245865675409988</v>
+        <v>1.485270949396778</v>
       </c>
       <c r="G20">
-        <v>0.0007979780252029147</v>
+        <v>1.262953728866194</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0007104501244166173</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05326300271500628</v>
+        <v>0.7614229252859559</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6430140043594506</v>
       </c>
       <c r="L20">
-        <v>0.4426607621141869</v>
+        <v>0.06824905238901025</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.40674920877413</v>
+        <v>0.4730499565852568</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.7087883566534643</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.290320392810827</v>
+        <v>4.897317500362078</v>
       </c>
       <c r="C21">
-        <v>1.342408326675979</v>
+        <v>0.8213140460309774</v>
       </c>
       <c r="D21">
-        <v>0.02766629051191671</v>
+        <v>0.04769674214942299</v>
       </c>
       <c r="E21">
-        <v>0.01604634828917162</v>
+        <v>0.05164761246153393</v>
       </c>
       <c r="F21">
-        <v>4.654603382890485</v>
+        <v>1.620611362298988</v>
       </c>
       <c r="G21">
-        <v>0.0007838644095305991</v>
+        <v>1.392538488642998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.002388411399435686</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05262123107379324</v>
+        <v>0.8155333946980363</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6823419143611034</v>
       </c>
       <c r="L21">
-        <v>0.4950402342982017</v>
+        <v>0.07353707387546216</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.366915062065132</v>
+        <v>0.5385936861800218</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.6680108309588455</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.945954489897986</v>
+        <v>5.25792931038751</v>
       </c>
       <c r="C22">
-        <v>1.45774537152721</v>
+        <v>0.8823556286793348</v>
       </c>
       <c r="D22">
-        <v>0.03058050584645144</v>
+        <v>0.05030422286962022</v>
       </c>
       <c r="E22">
-        <v>0.01615201606030264</v>
+        <v>0.05391223145652368</v>
       </c>
       <c r="F22">
-        <v>4.937000369888324</v>
+        <v>1.701799204461267</v>
       </c>
       <c r="G22">
-        <v>0.0007746535479301583</v>
+        <v>1.471215783273664</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.004091690527914138</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05227465893134564</v>
+        <v>0.8479892557658673</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.7048528757164831</v>
       </c>
       <c r="L22">
-        <v>0.5305166396844214</v>
+        <v>0.07644009455097489</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.344399522630141</v>
+        <v>0.5751883543625524</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.6436624707377092</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.593771786722641</v>
+        <v>5.065253944653364</v>
       </c>
       <c r="C23">
-        <v>1.395800180692845</v>
+        <v>0.8497347569594353</v>
       </c>
       <c r="D23">
-        <v>0.02900343428347441</v>
+        <v>0.04890944666539809</v>
       </c>
       <c r="E23">
-        <v>0.01609419966303005</v>
+        <v>0.0527004634663113</v>
       </c>
       <c r="F23">
-        <v>4.784746516564155</v>
+        <v>1.658252668309927</v>
       </c>
       <c r="G23">
-        <v>0.0007795703019032034</v>
+        <v>1.42900423776382</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.003128246748768215</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05245260108832994</v>
+        <v>0.8305520076135053</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6927243380273893</v>
       </c>
       <c r="L23">
-        <v>0.5114569370095694</v>
+        <v>0.07488755171695693</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.356069748763133</v>
+        <v>0.5556373098386729</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.6565673818924935</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.3057554087423</v>
+        <v>4.339819800975704</v>
       </c>
       <c r="C24">
-        <v>1.169007827114285</v>
+        <v>0.7270342276347037</v>
       </c>
       <c r="D24">
-        <v>0.02346632175643037</v>
+        <v>0.04368946651940675</v>
       </c>
       <c r="E24">
-        <v>0.01590406491555518</v>
+        <v>0.04817186982012078</v>
       </c>
       <c r="F24">
-        <v>4.239414224917596</v>
+        <v>1.497842378239753</v>
       </c>
       <c r="G24">
-        <v>0.0007982093357202175</v>
+        <v>1.273742459496447</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0006260364288261933</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05327464628947887</v>
+        <v>0.7669325212988269</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6491934115835178</v>
       </c>
       <c r="L24">
-        <v>0.4418232344484778</v>
+        <v>0.06906705775963395</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.407454506082431</v>
+        <v>0.4819908769859325</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.7073737928308361</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.992968517420138</v>
+        <v>3.564572794235005</v>
       </c>
       <c r="C25">
-        <v>0.9371445507978535</v>
+        <v>0.5960537887646922</v>
       </c>
       <c r="D25">
-        <v>0.01819771903187828</v>
+        <v>0.03815749283680603</v>
       </c>
       <c r="E25">
-        <v>0.01574778941801253</v>
+        <v>0.04337352555226293</v>
       </c>
       <c r="F25">
-        <v>3.704695788940398</v>
+        <v>1.333204391146296</v>
       </c>
       <c r="G25">
-        <v>0.0008185434248315637</v>
+        <v>1.114760601656201</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.925915128310535E-05</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05444211172189561</v>
+        <v>0.7028585929343052</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6067687762066072</v>
       </c>
       <c r="L25">
-        <v>0.3710364463009057</v>
+        <v>0.06285846816398077</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.475812637370126</v>
+        <v>0.4031984427550839</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.7659900946245912</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.998119592790545</v>
+        <v>2.836485022990701</v>
       </c>
       <c r="C2">
-        <v>0.5003783741494772</v>
+        <v>0.542184837458251</v>
       </c>
       <c r="D2">
-        <v>0.03413708595801168</v>
+        <v>0.03784773754858506</v>
       </c>
       <c r="E2">
-        <v>0.03987483945617765</v>
+        <v>0.03892403538008882</v>
       </c>
       <c r="F2">
-        <v>1.218018560893213</v>
+        <v>1.107801196588241</v>
       </c>
       <c r="G2">
-        <v>1.003743514880227</v>
+        <v>0.8716315726391457</v>
       </c>
       <c r="H2">
-        <v>0.001288947134206131</v>
+        <v>0.0009707037120225692</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6590130968374552</v>
+        <v>0.6350716178386335</v>
       </c>
       <c r="K2">
-        <v>0.5788650159754098</v>
+        <v>0.498735133203084</v>
       </c>
       <c r="L2">
-        <v>0.05829386417623095</v>
+        <v>0.2362534141281039</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1453891573935238</v>
       </c>
       <c r="N2">
-        <v>0.3455366193719982</v>
+        <v>0.0549301828316775</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8121519948304901</v>
+        <v>0.3677114091132978</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.8081417809634601</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.616104380423167</v>
+        <v>2.481456035594988</v>
       </c>
       <c r="C3">
-        <v>0.4358300776821977</v>
+        <v>0.4693185672475693</v>
       </c>
       <c r="D3">
-        <v>0.03143118944790757</v>
+        <v>0.03495822690490868</v>
       </c>
       <c r="E3">
-        <v>0.03750712287340185</v>
+        <v>0.03690656489323541</v>
       </c>
       <c r="F3">
-        <v>1.143185165607278</v>
+        <v>1.0452617535625</v>
       </c>
       <c r="G3">
-        <v>0.931700299517118</v>
+        <v>0.8147600200532708</v>
       </c>
       <c r="H3">
-        <v>0.002975667624224743</v>
+        <v>0.002290371278032888</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6311130821530071</v>
+        <v>0.6082046550963867</v>
       </c>
       <c r="K3">
-        <v>0.5617770997961884</v>
+        <v>0.4883433081346027</v>
       </c>
       <c r="L3">
-        <v>0.05518048327748026</v>
+        <v>0.2378753751273628</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1367814734624062</v>
       </c>
       <c r="N3">
-        <v>0.3065861318272738</v>
+        <v>0.05229478683526523</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8451838296157597</v>
+        <v>0.3267108101343865</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.8320505405978338</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.382219275664795</v>
+        <v>2.26342323806881</v>
       </c>
       <c r="C4">
-        <v>0.3962858381190983</v>
+        <v>0.4247561180662842</v>
       </c>
       <c r="D4">
-        <v>0.02977482061792003</v>
+        <v>0.03319330255496666</v>
       </c>
       <c r="E4">
-        <v>0.03604953706163272</v>
+        <v>0.03566066283546299</v>
       </c>
       <c r="F4">
-        <v>1.098666527609709</v>
+        <v>1.007887739944366</v>
       </c>
       <c r="G4">
-        <v>0.8888661515317864</v>
+        <v>0.7810592942309</v>
       </c>
       <c r="H4">
-        <v>0.004404896343391251</v>
+        <v>0.003417116262739883</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6147969884027162</v>
+        <v>0.5920219810686831</v>
       </c>
       <c r="K4">
-        <v>0.5521056325462723</v>
+        <v>0.4825130353329783</v>
       </c>
       <c r="L4">
-        <v>0.05325168127959401</v>
+        <v>0.2388918514516902</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1324258246760159</v>
       </c>
       <c r="N4">
-        <v>0.2827053392764043</v>
+        <v>0.0506556660203783</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8662888884586799</v>
+        <v>0.3015929646951321</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.8475574673896809</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.287045280421523</v>
+        <v>2.174540134946255</v>
       </c>
       <c r="C5">
-        <v>0.3801861202343844</v>
+        <v>0.4066341062570018</v>
       </c>
       <c r="D5">
-        <v>0.02910054055142552</v>
+        <v>0.03247601086280483</v>
       </c>
       <c r="E5">
-        <v>0.03545384579110866</v>
+        <v>0.03515057776180885</v>
       </c>
       <c r="F5">
-        <v>1.0808616147946</v>
+        <v>0.9928983684523018</v>
       </c>
       <c r="G5">
-        <v>0.8717388503335997</v>
+        <v>0.7676108210684021</v>
       </c>
       <c r="H5">
-        <v>0.005080998114772195</v>
+        <v>0.003951754844073174</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6083417364864232</v>
+        <v>0.5855009754660045</v>
       </c>
       <c r="K5">
-        <v>0.5483598105515313</v>
+        <v>0.4802679575661237</v>
       </c>
       <c r="L5">
-        <v>0.05246033405548012</v>
+        <v>0.2393106440776158</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1308788331630453</v>
       </c>
       <c r="N5">
-        <v>0.27297876228495</v>
+        <v>0.04998163125171207</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8750909044227022</v>
+        <v>0.2913683260672002</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.8540799216649546</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.271248993895369</v>
+        <v>2.159778554386833</v>
       </c>
       <c r="C6">
-        <v>0.3775134649211225</v>
+        <v>0.4036270270849229</v>
       </c>
       <c r="D6">
-        <v>0.02898860344348364</v>
+        <v>0.03235701058986606</v>
       </c>
       <c r="E6">
-        <v>0.03535480684769077</v>
+        <v>0.03506571933917524</v>
       </c>
       <c r="F6">
-        <v>1.077924824184308</v>
+        <v>0.9904234584414411</v>
       </c>
       <c r="G6">
-        <v>0.8689139976525695</v>
+        <v>0.7653943041193969</v>
       </c>
       <c r="H6">
-        <v>0.005198772207218372</v>
+        <v>0.004044973392818729</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.607281229863716</v>
+        <v>0.5844224595921332</v>
       </c>
       <c r="K6">
-        <v>0.54774930985905</v>
+        <v>0.4799028490703208</v>
       </c>
       <c r="L6">
-        <v>0.05232857960988735</v>
+        <v>0.2393804430591011</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1306355625047679</v>
       </c>
       <c r="N6">
-        <v>0.2713638701057022</v>
+        <v>0.04986931826958863</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.876564489279172</v>
+        <v>0.2896711128533696</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.8551751150767259</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.380935217499939</v>
+        <v>2.260037126367536</v>
       </c>
       <c r="C7">
-        <v>0.3960686609174218</v>
+        <v>0.4234481374041934</v>
       </c>
       <c r="D7">
-        <v>0.02976572491666118</v>
+        <v>0.03329391418000327</v>
       </c>
       <c r="E7">
-        <v>0.03604151127003163</v>
+        <v>0.03567395899907577</v>
       </c>
       <c r="F7">
-        <v>1.098425069739264</v>
+        <v>1.005874391671171</v>
       </c>
       <c r="G7">
-        <v>0.8886338699989835</v>
+        <v>0.7847476161916376</v>
       </c>
       <c r="H7">
-        <v>0.004413641997669027</v>
+        <v>0.003430940786453562</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6147091607042228</v>
+        <v>0.5847533943872492</v>
       </c>
       <c r="K7">
-        <v>0.552054338088773</v>
+        <v>0.4816619300515939</v>
       </c>
       <c r="L7">
-        <v>0.05324103185450912</v>
+        <v>0.2385260490123926</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1321564806635287</v>
       </c>
       <c r="N7">
-        <v>0.2825741476669776</v>
+        <v>0.05063408705017913</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.86640678657756</v>
+        <v>0.3012936588156663</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.8479377986544065</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.866240096588172</v>
+        <v>2.706725672305367</v>
       </c>
       <c r="C8">
-        <v>0.4780990918587804</v>
+        <v>0.5134365894879807</v>
       </c>
       <c r="D8">
-        <v>0.03320268659414083</v>
+        <v>0.03722242032025846</v>
       </c>
       <c r="E8">
-        <v>0.03905876938504793</v>
+        <v>0.03829827889802573</v>
       </c>
       <c r="F8">
-        <v>1.191905335739207</v>
+        <v>1.080004643698572</v>
       </c>
       <c r="G8">
-        <v>0.9785972978256439</v>
+        <v>0.864713361429267</v>
       </c>
       <c r="H8">
-        <v>0.00178558398436035</v>
+        <v>0.001371118456536147</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6492171920552892</v>
+        <v>0.6021015622870607</v>
       </c>
       <c r="K8">
-        <v>0.5727960166051531</v>
+        <v>0.4923310167223178</v>
       </c>
       <c r="L8">
-        <v>0.05722330031246603</v>
+        <v>0.2356634044154902</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1413287197493851</v>
       </c>
       <c r="N8">
-        <v>0.3320969030184386</v>
+        <v>0.05398568682336613</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8233670717893524</v>
+        <v>0.3530195538173757</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.8173090626343189</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.824920252156971</v>
+        <v>3.591366467139437</v>
       </c>
       <c r="C9">
-        <v>0.6400297509934205</v>
+        <v>0.695516294315496</v>
       </c>
       <c r="D9">
-        <v>0.04001073933694244</v>
+        <v>0.04461612639217094</v>
       </c>
       <c r="E9">
-        <v>0.04498198689953181</v>
+        <v>0.04334084327942911</v>
       </c>
       <c r="F9">
-        <v>1.387650131710842</v>
+        <v>1.240892364160601</v>
       </c>
       <c r="G9">
-        <v>1.167295103799589</v>
+        <v>1.018081035429631</v>
       </c>
       <c r="H9">
-        <v>5.397646156257707E-06</v>
+        <v>7.783684408124714E-06</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7238874278511958</v>
+        <v>0.6645361097710207</v>
       </c>
       <c r="K9">
-        <v>0.6205058763322455</v>
+        <v>0.5209571885906357</v>
       </c>
       <c r="L9">
-        <v>0.06494540842715324</v>
+        <v>0.2315982095800102</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1678564982404573</v>
       </c>
       <c r="N9">
-        <v>0.4296720456116532</v>
+        <v>0.06047482761631606</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.745760961434808</v>
+        <v>0.4556435511815948</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.762965120399322</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.513233974735101</v>
+        <v>4.210637766068658</v>
       </c>
       <c r="C10">
-        <v>0.7602969889781264</v>
+        <v>0.8237270623768609</v>
       </c>
       <c r="D10">
-        <v>0.04446331799287861</v>
+        <v>0.05007474129401146</v>
       </c>
       <c r="E10">
-        <v>0.04838201607684312</v>
+        <v>0.0462445920859027</v>
       </c>
       <c r="F10">
-        <v>1.521991730351971</v>
+        <v>1.339147898068347</v>
       </c>
       <c r="G10">
-        <v>1.298856044151535</v>
+        <v>1.148371036883276</v>
       </c>
       <c r="H10">
-        <v>0.001220304034190711</v>
+        <v>0.001028502630597394</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7757449592527053</v>
+        <v>0.6653670800975249</v>
       </c>
       <c r="K10">
-        <v>0.6520184099206361</v>
+        <v>0.5340084653476396</v>
       </c>
       <c r="L10">
-        <v>0.06950533272115234</v>
+        <v>0.2246728134953244</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1878806698285373</v>
       </c>
       <c r="N10">
-        <v>0.4892499284085829</v>
+        <v>0.06435905011704346</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6959742212219737</v>
+        <v>0.5174075700254264</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.7337423250079738</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.627722224834372</v>
+        <v>4.298699466936966</v>
       </c>
       <c r="C11">
-        <v>0.8162261518777143</v>
+        <v>0.8653793233457918</v>
       </c>
       <c r="D11">
-        <v>0.04123172181576251</v>
+        <v>0.04735841496189863</v>
       </c>
       <c r="E11">
-        <v>0.04317969145504597</v>
+        <v>0.04134460309053045</v>
       </c>
       <c r="F11">
-        <v>1.424943856206326</v>
+        <v>1.231293403083697</v>
       </c>
       <c r="G11">
-        <v>1.2208567286917</v>
+        <v>1.129739525178081</v>
       </c>
       <c r="H11">
-        <v>0.02000146291474536</v>
+        <v>0.01970492530570667</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7310675813004934</v>
+        <v>0.5497291965402553</v>
       </c>
       <c r="K11">
-        <v>0.5943495293009633</v>
+        <v>0.4767050083405735</v>
       </c>
       <c r="L11">
-        <v>0.06662419927990149</v>
+        <v>0.1992436484322226</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1718334107083734</v>
       </c>
       <c r="N11">
-        <v>0.4113769886286747</v>
+        <v>0.06381763235148785</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7038188449886604</v>
+        <v>0.4340949951532593</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7658138882038017</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.575006241452911</v>
+        <v>4.247377760218001</v>
       </c>
       <c r="C12">
-        <v>0.838014930891319</v>
+        <v>0.8771398217873809</v>
       </c>
       <c r="D12">
-        <v>0.03783948267884796</v>
+        <v>0.04366079365922815</v>
       </c>
       <c r="E12">
-        <v>0.04077125478306187</v>
+        <v>0.03905320717541538</v>
       </c>
       <c r="F12">
-        <v>1.315941772431486</v>
+        <v>1.128233860421815</v>
       </c>
       <c r="G12">
-        <v>1.128100835965355</v>
+        <v>1.070821591795152</v>
       </c>
       <c r="H12">
-        <v>0.05857270258196223</v>
+        <v>0.05827455735661857</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6825997817873457</v>
+        <v>0.4814757591639847</v>
       </c>
       <c r="K12">
-        <v>0.5404598918014898</v>
+        <v>0.4303147311323272</v>
       </c>
       <c r="L12">
-        <v>0.06983906769098702</v>
+        <v>0.1814214002165535</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1552922443775309</v>
       </c>
       <c r="N12">
-        <v>0.3396145131439283</v>
+        <v>0.06896666171156696</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7282410304439821</v>
+        <v>0.3582336270632283</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.8048532078369917</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.390914349458114</v>
+        <v>4.091754106602821</v>
       </c>
       <c r="C13">
-        <v>0.8345043788409328</v>
+        <v>0.8694137248016034</v>
       </c>
       <c r="D13">
-        <v>0.03413879627522221</v>
+        <v>0.03889120709428795</v>
       </c>
       <c r="E13">
-        <v>0.040322349778521</v>
+        <v>0.03873248184549993</v>
       </c>
       <c r="F13">
-        <v>1.191587876069605</v>
+        <v>1.025839702122511</v>
       </c>
       <c r="G13">
-        <v>1.018658719148988</v>
+        <v>0.9688002239009137</v>
       </c>
       <c r="H13">
-        <v>0.1139680882582752</v>
+        <v>0.1137530151481769</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6283711274350452</v>
+        <v>0.4516888347681203</v>
       </c>
       <c r="K13">
-        <v>0.4863033133175492</v>
+        <v>0.390446309621943</v>
       </c>
       <c r="L13">
-        <v>0.07774453073648502</v>
+        <v>0.1680545524481367</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1382423559862715</v>
       </c>
       <c r="N13">
-        <v>0.268962839878256</v>
+        <v>0.07860816766941525</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7654769847387399</v>
+        <v>0.2844319279994494</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.846690892037401</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.203593419404854</v>
+        <v>3.93576070702386</v>
       </c>
       <c r="C14">
-        <v>0.8206113423545389</v>
+        <v>0.8550886367358714</v>
       </c>
       <c r="D14">
-        <v>0.03147253414487849</v>
+        <v>0.03525346552879682</v>
       </c>
       <c r="E14">
-        <v>0.04123449535791579</v>
+        <v>0.03981816666435822</v>
       </c>
       <c r="F14">
-        <v>1.098772342420787</v>
+        <v>0.9543944209968345</v>
       </c>
       <c r="G14">
-        <v>0.9355270892888115</v>
+        <v>0.88066851392324</v>
       </c>
       <c r="H14">
-        <v>0.1630071393767452</v>
+        <v>0.1628699691942757</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5882679169235985</v>
+        <v>0.4452725991891526</v>
       </c>
       <c r="K14">
-        <v>0.4488779509316458</v>
+        <v>0.3653641136605472</v>
       </c>
       <c r="L14">
-        <v>0.08615921762159218</v>
+        <v>0.1604360633612316</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.126280085514388</v>
       </c>
       <c r="N14">
-        <v>0.2214307017811095</v>
+        <v>0.0881047821247023</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7977143850981037</v>
+        <v>0.2350316817579028</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.8767881806882372</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.130816488058656</v>
+        <v>3.875611956746638</v>
       </c>
       <c r="C15">
-        <v>0.8118251813471034</v>
+        <v>0.8472428929167677</v>
       </c>
       <c r="D15">
-        <v>0.03072823897219124</v>
+        <v>0.03418110259369556</v>
       </c>
       <c r="E15">
-        <v>0.04151422607146138</v>
+        <v>0.04019105559221625</v>
       </c>
       <c r="F15">
-        <v>1.072912336064647</v>
+        <v>0.9363914565625038</v>
       </c>
       <c r="G15">
-        <v>0.9117709320241545</v>
+        <v>0.8516922255433599</v>
       </c>
       <c r="H15">
-        <v>0.1753903908356307</v>
+        <v>0.1752833543717287</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5773193693692775</v>
+        <v>0.4496897020236332</v>
       </c>
       <c r="K15">
-        <v>0.4395823134016297</v>
+        <v>0.3601505412018966</v>
       </c>
       <c r="L15">
-        <v>0.08830739083135342</v>
+        <v>0.1592219170152838</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1232053693227435</v>
       </c>
       <c r="N15">
-        <v>0.2093751468941818</v>
+        <v>0.0904972854753936</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8071382862239531</v>
+        <v>0.2226167806391715</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.8834800081011167</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.875872921980317</v>
+        <v>3.663944147866005</v>
       </c>
       <c r="C16">
-        <v>0.7603456761108873</v>
+        <v>0.8037529709367277</v>
       </c>
       <c r="D16">
-        <v>0.02965125811166303</v>
+        <v>0.03228939369146744</v>
       </c>
       <c r="E16">
-        <v>0.04010986885796175</v>
+        <v>0.03918271678956486</v>
       </c>
       <c r="F16">
-        <v>1.041929475700414</v>
+        <v>0.9287668743163806</v>
       </c>
       <c r="G16">
-        <v>0.8785281721593208</v>
+        <v>0.7861964837525335</v>
       </c>
       <c r="H16">
-        <v>0.1621477831039755</v>
+        <v>0.162132462041825</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5663763650115641</v>
+        <v>0.5017714645176738</v>
       </c>
       <c r="K16">
-        <v>0.4373116722984918</v>
+        <v>0.367617461838325</v>
       </c>
       <c r="L16">
-        <v>0.08440235194851198</v>
+        <v>0.1651742561326799</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1211161250875428</v>
       </c>
       <c r="N16">
-        <v>0.2004768986205505</v>
+        <v>0.0865231181023951</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.817130718552761</v>
+        <v>0.2144430583827344</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.8755002972858676</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.779703774245831</v>
+        <v>3.581036628471622</v>
       </c>
       <c r="C17">
-        <v>0.7283899240414655</v>
+        <v>0.7762529089639258</v>
       </c>
       <c r="D17">
-        <v>0.03020058826178129</v>
+        <v>0.03274673353269009</v>
       </c>
       <c r="E17">
-        <v>0.0383217756978409</v>
+        <v>0.03748488286397844</v>
       </c>
       <c r="F17">
-        <v>1.067126186202131</v>
+        <v>0.9590864953559333</v>
       </c>
       <c r="G17">
-        <v>0.8969625831749681</v>
+        <v>0.7869226795421866</v>
       </c>
       <c r="H17">
-        <v>0.1241883817619112</v>
+        <v>0.1241880307165388</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5792340916025864</v>
+        <v>0.5400328791481144</v>
       </c>
       <c r="K17">
-        <v>0.4553022698272073</v>
+        <v>0.3861415885573614</v>
       </c>
       <c r="L17">
-        <v>0.07643716137199874</v>
+        <v>0.1739555959933305</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1253980102493557</v>
       </c>
       <c r="N17">
-        <v>0.2178668609222854</v>
+        <v>0.07793559120260696</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8078870002300249</v>
+        <v>0.233304533029866</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.855925047068645</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.807648960586107</v>
+        <v>3.603499313389534</v>
       </c>
       <c r="C18">
-        <v>0.7094526821841214</v>
+        <v>0.7618095773389086</v>
       </c>
       <c r="D18">
-        <v>0.03236097848991548</v>
+        <v>0.03522131145792073</v>
       </c>
       <c r="E18">
-        <v>0.03730067539393467</v>
+        <v>0.03630746444204225</v>
       </c>
       <c r="F18">
-        <v>1.144562599048072</v>
+        <v>1.030070059951072</v>
       </c>
       <c r="G18">
-        <v>0.962687510617684</v>
+        <v>0.8363916483430387</v>
       </c>
       <c r="H18">
-        <v>0.07133674157773839</v>
+        <v>0.0713368886878456</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6142820274524468</v>
+        <v>0.582041394213519</v>
       </c>
       <c r="K18">
-        <v>0.4936403438853105</v>
+        <v>0.4185151453710603</v>
       </c>
       <c r="L18">
-        <v>0.06720500467008428</v>
+        <v>0.1871354588057024</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1362242921913754</v>
       </c>
       <c r="N18">
-        <v>0.2634152851061629</v>
+        <v>0.06747239695870277</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7841885928237318</v>
+        <v>0.2815150179349786</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.8249635032486395</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.933144421630516</v>
+        <v>3.710785009570259</v>
       </c>
       <c r="C19">
-        <v>0.702343520191306</v>
+        <v>0.7599115113740424</v>
       </c>
       <c r="D19">
-        <v>0.03591431609695661</v>
+        <v>0.03936258284287319</v>
       </c>
       <c r="E19">
-        <v>0.03890615806066267</v>
+        <v>0.0375662112723596</v>
       </c>
       <c r="F19">
-        <v>1.261284643065864</v>
+        <v>1.132313057951691</v>
       </c>
       <c r="G19">
-        <v>1.06406482935796</v>
+        <v>0.920197013081733</v>
       </c>
       <c r="H19">
-        <v>0.0261842333422706</v>
+        <v>0.02618199116630393</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6656438331623917</v>
+        <v>0.6296031246155991</v>
       </c>
       <c r="K19">
-        <v>0.5474537999126525</v>
+        <v>0.4616597926385992</v>
       </c>
       <c r="L19">
-        <v>0.06221883945556606</v>
+        <v>0.203602696091675</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1522765837463353</v>
       </c>
       <c r="N19">
-        <v>0.3340915523032777</v>
+        <v>0.06068924938500597</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7550268879695707</v>
+        <v>0.3558898516824911</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.7898144911607758</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.331055560751963</v>
+        <v>4.055231612444857</v>
       </c>
       <c r="C20">
-        <v>0.7286165711711021</v>
+        <v>0.7939281968133685</v>
       </c>
       <c r="D20">
-        <v>0.04326060474168969</v>
+        <v>0.04818433672460287</v>
       </c>
       <c r="E20">
-        <v>0.04743857078492209</v>
+        <v>0.04536185198411768</v>
       </c>
       <c r="F20">
-        <v>1.485270949396778</v>
+        <v>1.318683223385165</v>
       </c>
       <c r="G20">
-        <v>1.262953728866194</v>
+        <v>1.09863788105713</v>
       </c>
       <c r="H20">
-        <v>0.0007104501244166173</v>
+        <v>0.0006161800857791278</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7614229252859559</v>
+        <v>0.6894391549167409</v>
       </c>
       <c r="K20">
-        <v>0.6430140043594506</v>
+        <v>0.5329057047095489</v>
       </c>
       <c r="L20">
-        <v>0.06824905238901025</v>
+        <v>0.227370790533584</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1833228296721572</v>
       </c>
       <c r="N20">
-        <v>0.4730499565852568</v>
+        <v>0.06333431226617936</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7087883566534643</v>
+        <v>0.5012055921638279</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.7396617179356539</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.897317500362078</v>
+        <v>4.518080172382611</v>
       </c>
       <c r="C21">
-        <v>0.8213140460309774</v>
+        <v>0.8726549894875291</v>
       </c>
       <c r="D21">
-        <v>0.04769674214942299</v>
+        <v>0.05590337153499547</v>
       </c>
       <c r="E21">
-        <v>0.05164761246153393</v>
+        <v>0.0495315452114351</v>
       </c>
       <c r="F21">
-        <v>1.620611362298988</v>
+        <v>1.386677064718342</v>
       </c>
       <c r="G21">
-        <v>1.392538488642998</v>
+        <v>1.301581809768635</v>
       </c>
       <c r="H21">
-        <v>0.002388411399435686</v>
+        <v>0.001859243451374892</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8155333946980363</v>
+        <v>0.5777168690154184</v>
       </c>
       <c r="K21">
-        <v>0.6823419143611034</v>
+        <v>0.5393258270120995</v>
       </c>
       <c r="L21">
-        <v>0.07353707387546216</v>
+        <v>0.2206353612557379</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1982621972859135</v>
       </c>
       <c r="N21">
-        <v>0.5385936861800218</v>
+        <v>0.06738054485572054</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6680108309588455</v>
+        <v>0.5661199709607274</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7213595872898253</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.25792931038751</v>
+        <v>4.807168399444549</v>
       </c>
       <c r="C22">
-        <v>0.8823556286793348</v>
+        <v>0.9222296431465509</v>
       </c>
       <c r="D22">
-        <v>0.05030422286962022</v>
+        <v>0.06093685292591289</v>
       </c>
       <c r="E22">
-        <v>0.05391223145652368</v>
+        <v>0.05187179579811207</v>
       </c>
       <c r="F22">
-        <v>1.701799204461267</v>
+        <v>1.421387003273011</v>
       </c>
       <c r="G22">
-        <v>1.471215783273664</v>
+        <v>1.439602174744323</v>
       </c>
       <c r="H22">
-        <v>0.004091690527914138</v>
+        <v>0.003117114199387316</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8479892557658673</v>
+        <v>0.5022717525277329</v>
       </c>
       <c r="K22">
-        <v>0.7048528757164831</v>
+        <v>0.5396001663476184</v>
       </c>
       <c r="L22">
-        <v>0.07644009455097489</v>
+        <v>0.2148650142629549</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2069154050039899</v>
       </c>
       <c r="N22">
-        <v>0.5751883543625524</v>
+        <v>0.06963313993058584</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.6436624707377092</v>
+        <v>0.601662002391663</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.7137009050791789</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.065253944653364</v>
+        <v>4.658989304323143</v>
       </c>
       <c r="C23">
-        <v>0.8497347569594353</v>
+        <v>0.8987170586250954</v>
       </c>
       <c r="D23">
-        <v>0.04890944666539809</v>
+        <v>0.05789097691847189</v>
       </c>
       <c r="E23">
-        <v>0.0527004634663113</v>
+        <v>0.05054863325267345</v>
       </c>
       <c r="F23">
-        <v>1.658252668309927</v>
+        <v>1.407580423937617</v>
       </c>
       <c r="G23">
-        <v>1.42900423776382</v>
+        <v>1.353940367381</v>
       </c>
       <c r="H23">
-        <v>0.003128246748768215</v>
+        <v>0.002417791025822957</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8305520076135053</v>
+        <v>0.5570555490604931</v>
       </c>
       <c r="K23">
-        <v>0.6927243380273893</v>
+        <v>0.5415037538536396</v>
       </c>
       <c r="L23">
-        <v>0.07488755171695693</v>
+        <v>0.2186437105412402</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2031037747355242</v>
       </c>
       <c r="N23">
-        <v>0.5556373098386729</v>
+        <v>0.06845080462591646</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6565673818924935</v>
+        <v>0.5831322621972674</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.7163972582513338</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.339819800975704</v>
+        <v>4.062665530084189</v>
       </c>
       <c r="C24">
-        <v>0.7270342276347037</v>
+        <v>0.792940650255872</v>
       </c>
       <c r="D24">
-        <v>0.04368946651940675</v>
+        <v>0.04866957042150233</v>
       </c>
       <c r="E24">
-        <v>0.04817186982012078</v>
+        <v>0.04605017662684308</v>
       </c>
       <c r="F24">
-        <v>1.497842378239753</v>
+        <v>1.329942155366666</v>
       </c>
       <c r="G24">
-        <v>1.273742459496447</v>
+        <v>1.107002494518525</v>
       </c>
       <c r="H24">
-        <v>0.0006260364288261933</v>
+        <v>0.0005282594436921695</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7669325212988269</v>
+        <v>0.6954785063763467</v>
       </c>
       <c r="K24">
-        <v>0.6491934115835178</v>
+        <v>0.537995396505508</v>
       </c>
       <c r="L24">
-        <v>0.06906705775963395</v>
+        <v>0.2293872762926448</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1851239040227739</v>
       </c>
       <c r="N24">
-        <v>0.4819908769859325</v>
+        <v>0.06390788075681808</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7073737928308361</v>
+        <v>0.5105972441264583</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.7371411190459867</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.564572794235005</v>
+        <v>3.354991404097348</v>
       </c>
       <c r="C25">
-        <v>0.5960537887646922</v>
+        <v>0.6475811413698409</v>
       </c>
       <c r="D25">
-        <v>0.03815749283680603</v>
+        <v>0.0424395074414079</v>
       </c>
       <c r="E25">
-        <v>0.04337352555226293</v>
+        <v>0.04194551189508999</v>
       </c>
       <c r="F25">
-        <v>1.333204391146296</v>
+        <v>1.198872151792344</v>
       </c>
       <c r="G25">
-        <v>1.114760601656201</v>
+        <v>0.9696811781128645</v>
       </c>
       <c r="H25">
-        <v>8.925915128310535E-05</v>
+        <v>5.832091086976909E-05</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7028585929343052</v>
+        <v>0.6573881332630123</v>
       </c>
       <c r="K25">
-        <v>0.6067687762066072</v>
+        <v>0.5138054012299591</v>
       </c>
       <c r="L25">
-        <v>0.06285846816398077</v>
+        <v>0.233123078982139</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.160240500852094</v>
       </c>
       <c r="N25">
-        <v>0.4031984427550839</v>
+        <v>0.05874369645228494</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7659900946245912</v>
+        <v>0.4280281713644598</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7763783400975726</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
